--- a/data/genericballot.xlsx
+++ b/data/genericballot.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="29">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">Marist Poll/NPR/PBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarity Labs</t>
   </si>
 </sst>
 </file>
@@ -179,13 +182,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -200,16 +211,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -335,15 +346,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D86" activeCellId="0" sqref="D86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E83" activeCellId="0" sqref="E:E"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.83"/>
   </cols>
   <sheetData>
@@ -360,7 +372,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -371,19 +383,19 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="4" t="n">
         <v>45693</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -394,19 +406,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="4" t="n">
         <v>45693</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -417,19 +429,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="4" t="n">
         <v>45693</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -440,7 +452,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="4" t="n">
         <v>45718</v>
       </c>
       <c r="B5" s="1" t="n">
@@ -452,7 +464,7 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -463,7 +475,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="4" t="n">
         <v>45718</v>
       </c>
       <c r="B6" s="1" t="n">
@@ -475,7 +487,7 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -486,7 +498,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="4" t="n">
         <v>45718</v>
       </c>
       <c r="B7" s="1" t="n">
@@ -498,7 +510,7 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -509,19 +521,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="4" t="n">
         <v>45721</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -532,19 +544,19 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="4" t="n">
         <v>45721</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -555,19 +567,19 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="4" t="n">
         <v>45721</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -578,19 +590,19 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="4" t="n">
         <v>45750</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -601,19 +613,19 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="4" t="n">
         <v>45750</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -624,19 +636,19 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="4" t="n">
         <v>45750</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -647,7 +659,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="4" t="n">
         <v>45760</v>
       </c>
       <c r="B14" s="1" t="n">
@@ -659,7 +671,7 @@
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -670,7 +682,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="4" t="n">
         <v>45760</v>
       </c>
       <c r="B15" s="1" t="n">
@@ -682,7 +694,7 @@
       <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -693,7 +705,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="4" t="n">
         <v>45760</v>
       </c>
       <c r="B16" s="1" t="n">
@@ -705,7 +717,7 @@
       <c r="D16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -716,19 +728,19 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="4" t="n">
         <v>45785</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -739,19 +751,19 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="4" t="n">
         <v>45785</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -762,19 +774,19 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="4" t="n">
         <v>45785</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -785,7 +797,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="4" t="n">
         <v>45804</v>
       </c>
       <c r="B20" s="1" t="n">
@@ -797,7 +809,7 @@
       <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="3" t="n">
         <v>3469</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -808,7 +820,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="4" t="n">
         <v>45804</v>
       </c>
       <c r="B21" s="1" t="n">
@@ -820,7 +832,7 @@
       <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="3" t="n">
         <v>3469</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -831,7 +843,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="4" t="n">
         <v>45804</v>
       </c>
       <c r="B22" s="1" t="n">
@@ -843,7 +855,7 @@
       <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="3" t="n">
         <v>3469</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -854,19 +866,19 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="4" t="n">
         <v>45811</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -877,19 +889,19 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="4" t="n">
         <v>45811</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -900,13 +912,13 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="4" t="n">
         <v>45811</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -915,15 +927,15 @@
       <c r="E25" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="F25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="4" t="n">
         <v>45829</v>
       </c>
       <c r="B26" s="1" t="n">
@@ -935,7 +947,7 @@
       <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="3" t="n">
         <v>800</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -946,7 +958,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="4" t="n">
         <v>45829</v>
       </c>
       <c r="B27" s="1" t="n">
@@ -958,7 +970,7 @@
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="3" t="n">
         <v>800</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -969,7 +981,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="4" t="n">
         <v>45829</v>
       </c>
       <c r="B28" s="1" t="n">
@@ -981,7 +993,7 @@
       <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="3" t="n">
         <v>800</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -992,7 +1004,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="4" t="n">
         <v>45840</v>
       </c>
       <c r="B29" s="1" t="n">
@@ -1004,7 +1016,7 @@
       <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1015,7 +1027,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="4" t="n">
         <v>45840</v>
       </c>
       <c r="B30" s="1" t="n">
@@ -1027,7 +1039,7 @@
       <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -1038,7 +1050,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="4" t="n">
         <v>45840</v>
       </c>
       <c r="B31" s="1" t="n">
@@ -1050,7 +1062,7 @@
       <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="3" t="n">
         <v>1500</v>
       </c>
       <c r="F31" s="1" t="s">
@@ -1061,7 +1073,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="4" t="n">
         <v>45856</v>
       </c>
       <c r="B32" s="1" t="n">
@@ -1073,7 +1085,7 @@
       <c r="D32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="3" t="n">
         <v>1935</v>
       </c>
       <c r="F32" s="1" t="s">
@@ -1084,7 +1096,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="4" t="n">
         <v>45856</v>
       </c>
       <c r="B33" s="1" t="n">
@@ -1096,7 +1108,7 @@
       <c r="D33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="3" t="n">
         <v>1935</v>
       </c>
       <c r="F33" s="1" t="s">
@@ -1107,7 +1119,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="4" t="n">
         <v>45856</v>
       </c>
       <c r="B34" s="1" t="n">
@@ -1119,7 +1131,7 @@
       <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E34" s="3" t="n">
         <v>1935</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -1130,7 +1142,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="4" t="n">
         <v>45860</v>
       </c>
       <c r="B35" s="1" t="n">
@@ -1142,7 +1154,7 @@
       <c r="D35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="3" t="n">
         <v>1400</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -1153,7 +1165,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="4" t="n">
         <v>45860</v>
       </c>
       <c r="B36" s="1" t="n">
@@ -1165,7 +1177,7 @@
       <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="3" t="n">
         <v>1400</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -1176,7 +1188,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="4" t="n">
         <v>45860</v>
       </c>
       <c r="B37" s="1" t="n">
@@ -1188,7 +1200,7 @@
       <c r="D37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="3" t="n">
         <v>1400</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -1199,7 +1211,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="4" t="n">
         <v>45870</v>
       </c>
       <c r="B38" s="1" t="n">
@@ -1211,7 +1223,7 @@
       <c r="D38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -1222,7 +1234,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="4" t="n">
         <v>45870</v>
       </c>
       <c r="B39" s="1" t="n">
@@ -1234,7 +1246,7 @@
       <c r="D39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -1245,7 +1257,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="4" t="n">
         <v>45870</v>
       </c>
       <c r="B40" s="1" t="n">
@@ -1257,7 +1269,7 @@
       <c r="D40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E40" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="F40" s="1" t="s">
@@ -1268,7 +1280,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="4" t="n">
         <v>45878</v>
       </c>
       <c r="B41" s="1" t="n">
@@ -1280,10 +1292,10 @@
       <c r="D41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E41" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -1291,7 +1303,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="4" t="n">
         <v>45878</v>
       </c>
       <c r="B42" s="1" t="n">
@@ -1303,10 +1315,10 @@
       <c r="D42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -1314,7 +1326,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="4" t="n">
         <v>45878</v>
       </c>
       <c r="B43" s="1" t="n">
@@ -1326,10 +1338,10 @@
       <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E43" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -1337,7 +1349,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="4" t="n">
         <v>45886</v>
       </c>
       <c r="B44" s="1" t="n">
@@ -1349,10 +1361,10 @@
       <c r="D44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="3" t="n">
         <v>1057</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -1360,7 +1372,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="4" t="n">
         <v>45886</v>
       </c>
       <c r="B45" s="1" t="n">
@@ -1372,10 +1384,10 @@
       <c r="D45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="1" t="n">
+      <c r="E45" s="3" t="n">
         <v>1057</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -1383,7 +1395,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="4" t="n">
         <v>45886</v>
       </c>
       <c r="B46" s="1" t="n">
@@ -1395,10 +1407,10 @@
       <c r="D46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="3" t="n">
         <v>1057</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -1406,22 +1418,22 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="4" t="n">
         <v>45895</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>43.3</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="1" t="n">
+      <c r="E47" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -1429,22 +1441,22 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="4" t="n">
         <v>45895</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -1452,22 +1464,22 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="4" t="n">
         <v>45895</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E49" s="3" t="n">
         <v>1066</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -1475,22 +1487,22 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="4" t="n">
         <v>45916</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>51.8</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="3" t="n">
         <v>1066</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -1498,22 +1510,22 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="4" t="n">
         <v>45916</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>43.5</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="1" t="n">
+      <c r="E51" s="3" t="n">
         <v>1066</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -1521,22 +1533,22 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="4" t="n">
         <v>45916</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>3.9</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="1" t="n">
+      <c r="E52" s="3" t="n">
         <v>1066</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -1544,22 +1556,22 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="4" t="n">
         <v>45922</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E53" s="1" t="n">
+      <c r="E53" s="3" t="n">
         <v>1071</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -1567,22 +1579,22 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="4" t="n">
         <v>45922</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="1" t="n">
+      <c r="E54" s="3" t="n">
         <v>1071</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -1590,22 +1602,22 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="4" t="n">
         <v>45922</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="1" t="n">
+      <c r="E55" s="3" t="n">
         <v>1071</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -1613,22 +1625,22 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="4" t="n">
         <v>45927</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="1" t="n">
+      <c r="E56" s="3" t="n">
         <v>1313</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -1636,22 +1648,22 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="4" t="n">
         <v>45927</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="1" t="n">
+      <c r="E57" s="3" t="n">
         <v>1313</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -1659,22 +1671,22 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="4" t="n">
         <v>45927</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="1" t="n">
+      <c r="E58" s="3" t="n">
         <v>1313</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -1682,22 +1694,22 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="4" t="n">
         <v>45938</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>47.5</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="1" t="n">
+      <c r="E59" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -1705,22 +1717,22 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="4" t="n">
         <v>45938</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>45.3</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="1" t="n">
+      <c r="E60" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -1728,22 +1740,22 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="4" t="n">
         <v>45938</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>7.3</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="1" t="n">
+      <c r="E61" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -1751,22 +1763,22 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="4" t="n">
         <v>45944</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="1" t="n">
+      <c r="E62" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -1774,22 +1786,22 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="4" t="n">
         <v>45944</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="1" t="n">
+      <c r="E63" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -1797,22 +1809,22 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="4" t="n">
         <v>45944</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="1" t="n">
+      <c r="E64" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -1820,22 +1832,22 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="4" t="n">
         <v>45950</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="1" t="n">
+      <c r="E65" s="3" t="n">
         <v>1327</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -1843,22 +1855,22 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="4" t="n">
         <v>45950</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E66" s="1" t="n">
+      <c r="E66" s="3" t="n">
         <v>1327</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -1866,22 +1878,22 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="4" t="n">
         <v>45950</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E67" s="1" t="n">
+      <c r="E67" s="3" t="n">
         <v>1327</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -1889,22 +1901,22 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="4" t="n">
         <v>45958</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E68" s="1" t="n">
+      <c r="E68" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -1912,22 +1924,22 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="4" t="n">
         <v>45958</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="1" t="n">
+      <c r="E69" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -1935,22 +1947,22 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="4" t="n">
         <v>45958</v>
       </c>
       <c r="B70" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="1" t="n">
+      <c r="E70" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -1958,22 +1970,22 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="4" t="n">
         <v>45960</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="1" t="n">
+      <c r="E71" s="3" t="n">
         <v>1245</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -1981,22 +1993,22 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="4" t="n">
         <v>45960</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E72" s="1" t="n">
+      <c r="E72" s="3" t="n">
         <v>1245</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -2004,22 +2016,22 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="4" t="n">
         <v>45960</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="1" t="n">
+      <c r="E73" s="3" t="n">
         <v>1245</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -2027,22 +2039,22 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="4" t="n">
         <v>45965</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E74" s="1" t="n">
+      <c r="E74" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -2050,22 +2062,22 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="4" t="n">
         <v>45965</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="1" t="n">
+      <c r="E75" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -2073,22 +2085,22 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="4" t="n">
         <v>45965</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E76" s="1" t="n">
+      <c r="E76" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -2096,19 +2108,19 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="n">
+      <c r="A77" s="4" t="n">
         <v>45973</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E77" s="0" t="n">
+      <c r="E77" s="3" t="n">
         <v>903</v>
       </c>
       <c r="F77" s="6" t="s">
@@ -2119,19 +2131,19 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="n">
+      <c r="A78" s="4" t="n">
         <v>45973</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E78" s="0" t="n">
+      <c r="E78" s="3" t="n">
         <v>903</v>
       </c>
       <c r="F78" s="6" t="s">
@@ -2142,19 +2154,19 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="n">
+      <c r="A79" s="4" t="n">
         <v>45973</v>
       </c>
-      <c r="B79" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="C79" s="4" t="s">
+      <c r="B79" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E79" s="0" t="n">
+      <c r="E79" s="3" t="n">
         <v>903</v>
       </c>
       <c r="F79" s="6" t="s">
@@ -2165,19 +2177,19 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="n">
+      <c r="A80" s="4" t="n">
         <v>45974</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E80" s="0" t="n">
+      <c r="E80" s="3" t="n">
         <v>1219</v>
       </c>
       <c r="F80" s="6" t="s">
@@ -2188,19 +2200,19 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="n">
+      <c r="A81" s="4" t="n">
         <v>45974</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81" s="3" t="n">
         <v>1219</v>
       </c>
       <c r="F81" s="6" t="s">
@@ -2211,19 +2223,19 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="n">
+      <c r="A82" s="4" t="n">
         <v>45974</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E82" s="0" t="n">
+      <c r="E82" s="3" t="n">
         <v>1219</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -2234,19 +2246,19 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="n">
+      <c r="A83" s="4" t="n">
         <v>45978</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83" s="3" t="n">
         <v>1051</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -2257,19 +2269,19 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="n">
+      <c r="A84" s="4" t="n">
         <v>45978</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84" s="3" t="n">
         <v>1051</v>
       </c>
       <c r="F84" s="6" t="s">
@@ -2280,25 +2292,292 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="n">
+      <c r="A85" s="4" t="n">
         <v>45978</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E85" s="0" t="n">
+      <c r="E85" s="3" t="n">
         <v>1051</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G85" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="8" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="8" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="8" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="8" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="8" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="8" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>1035</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="8" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>1035</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="8" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>1035</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="8" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="8" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="8" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data/genericballot.xlsx
+++ b/data/genericballot.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="29">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -191,7 +191,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -346,10 +346,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E83" activeCellId="0" sqref="E:E"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C99" activeCellId="0" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2315,10 +2315,10 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8" t="n">
+      <c r="A86" s="4" t="n">
         <v>46002</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="1" t="n">
         <v>49</v>
       </c>
       <c r="C86" s="6" t="s">
@@ -2330,15 +2330,15 @@
       <c r="E86" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="n">
+      <c r="A87" s="4" t="n">
         <v>46002</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C87" s="6" t="s">
@@ -2350,15 +2350,15 @@
       <c r="E87" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="n">
+      <c r="A88" s="4" t="n">
         <v>46002</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88" s="1" t="n">
         <v>7</v>
       </c>
       <c r="C88" s="6" t="s">
@@ -2370,15 +2370,15 @@
       <c r="E88" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="n">
+      <c r="A89" s="4" t="n">
         <v>46006</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="1" t="n">
         <v>48</v>
       </c>
       <c r="C89" s="6" t="s">
@@ -2390,7 +2390,7 @@
       <c r="E89" s="2" t="n">
         <v>1011</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -2398,10 +2398,10 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8" t="n">
+      <c r="A90" s="4" t="n">
         <v>46006</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90" s="1" t="n">
         <v>45</v>
       </c>
       <c r="C90" s="6" t="s">
@@ -2413,7 +2413,7 @@
       <c r="E90" s="2" t="n">
         <v>1011</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -2421,10 +2421,10 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="n">
+      <c r="A91" s="4" t="n">
         <v>46006</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C91" s="6" t="s">
@@ -2436,7 +2436,7 @@
       <c r="E91" s="2" t="n">
         <v>1011</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -2444,10 +2444,10 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8" t="n">
+      <c r="A92" s="4" t="n">
         <v>46006</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92" s="1" t="n">
         <v>47</v>
       </c>
       <c r="C92" s="6" t="s">
@@ -2459,7 +2459,7 @@
       <c r="E92" s="3" t="n">
         <v>1035</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -2467,10 +2467,10 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="n">
+      <c r="A93" s="4" t="n">
         <v>46006</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93" s="1" t="n">
         <v>43</v>
       </c>
       <c r="C93" s="6" t="s">
@@ -2482,7 +2482,7 @@
       <c r="E93" s="3" t="n">
         <v>1035</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -2490,10 +2490,10 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8" t="n">
+      <c r="A94" s="4" t="n">
         <v>46006</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C94" s="6" t="s">
@@ -2505,7 +2505,7 @@
       <c r="E94" s="3" t="n">
         <v>1035</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -2513,10 +2513,10 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="n">
+      <c r="A95" s="4" t="n">
         <v>46006</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C95" s="6" t="s">
@@ -2528,7 +2528,7 @@
       <c r="E95" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -2536,10 +2536,10 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8" t="n">
+      <c r="A96" s="4" t="n">
         <v>46006</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96" s="1" t="n">
         <v>42</v>
       </c>
       <c r="C96" s="6" t="s">
@@ -2551,7 +2551,7 @@
       <c r="E96" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -2559,10 +2559,10 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8" t="n">
+      <c r="A97" s="4" t="n">
         <v>46006</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97" s="1" t="n">
         <v>15</v>
       </c>
       <c r="C97" s="6" t="s">
@@ -2574,11 +2574,71 @@
       <c r="E97" s="2" t="n">
         <v>1000</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="8" t="n">
+        <v>46010</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>2315</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="8" t="n">
+        <v>46010</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>2315</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="8" t="n">
+        <v>46010</v>
+      </c>
+      <c r="B100" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>2315</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
